--- a/results-charts.xlsx
+++ b/results-charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="30780" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="30780" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mean for all fitness all algo" sheetId="1" r:id="rId1"/>
@@ -290,9 +290,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6935,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6951,25 +6954,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11647,7 +11650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G101"/>
     </sheetView>
   </sheetViews>
